--- a/biology/Botanique/Laurelia_sempervirens/Laurelia_sempervirens.xlsx
+++ b/biology/Botanique/Laurelia_sempervirens/Laurelia_sempervirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurelia sempervirens, parfois appelé laurel,  est un arbre natif du Chili. C’est un arbre à feuilles pérennes, abondant dans les bois de type valdivien toujours verts du sud du Chili.
 Son bois est de couleur jaune pâle, avec des anneaux de croissance peu visibles. Sa texture est fine et homogène.
